--- a/temp.xlsx
+++ b/temp.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wuyou\Desktop\exc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DEBF4B-EB88-4AF4-ABB8-F9741747E912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D93F436-43D4-46BE-9260-B2034EF8DEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5436" yWindow="1260" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Part1" sheetId="1" r:id="rId1"/>
+    <sheet name="Part2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>日期</t>
   </si>
@@ -275,12 +276,181 @@
   <si>
     <t>Part2-1 任务三 视频 1~9</t>
   </si>
+  <si>
+    <t>1.Gulp 基本使用
+2.Gulp 组合/异步任务
+3.Gulp 构建核心原理
+4.Gulp 文件操作
+5.Gulp 案例-样式/脚本/页面
+6.Gulp 案例-自动加载插件</t>
+  </si>
+  <si>
+    <t>Part2-1 任务三 视频 10~20</t>
+  </si>
+  <si>
+    <t>1.Gulp 案例-开发服务器
+2.Gulp 案例-监视及构建优化
+3.Gulp 案例-useref文件引用
+4.Gulp 案例-文件压缩
+5.Gulp 案例-重构及补充</t>
+  </si>
+  <si>
+    <t>Part2-1 任务三 视频 21~26</t>
+  </si>
+  <si>
+    <t>1.封装工作流
+2.FIS 使用 (仅了解)</t>
+  </si>
+  <si>
+    <t>Part2-1 任务三 视频 27~35</t>
+  </si>
+  <si>
+    <t>1.模块化开发概述
+2.ES Modules 特性
+3.ES Modules 导入导出
+4.ES Modules in Node.js</t>
+  </si>
+  <si>
+    <t>Part2-2 任务一 视频 1~15</t>
+  </si>
+  <si>
+    <t>1.webpack 上手
+2.webpack 配置文件
+3.css-loader
+4.style-loader
+5.less-loader</t>
+  </si>
+  <si>
+    <t>Part2-2 任务二 视频 1~7</t>
+  </si>
+  <si>
+    <t>1.browserslistrc 工作流程
+2.postcss及loader
+3.importLoaders属性
+4.file-loader</t>
+  </si>
+  <si>
+    <t>Part2-2 任务二 视频 8~12</t>
+  </si>
+  <si>
+    <t>1.设置图片与输出
+2.url-loader处理图片
+3.asset处理图片/图标
+4.webpack插件使用
+5.html-webpack-plugin
+6.copy-webpack-plugin</t>
+  </si>
+  <si>
+    <t>Part2-2 任务二 视频 13~19</t>
+  </si>
+  <si>
+    <t>1.babel 使用
+2.babel-loader 使用
+3.ployfill 配置
+4.webpack-dev-server 初始
+5.webpack-dev-middleware</t>
+  </si>
+  <si>
+    <t>Part2-2 任务二 视频 20~24</t>
+  </si>
+  <si>
+    <t>1.HMR 功能使用
+2.React热更新
+3.Vue 热更新
+4.output 中的 path
+5.devserver 中的 path
+6.devServer 常用配置</t>
+  </si>
+  <si>
+    <t>Part2-2 任务二 视频 25~30</t>
+  </si>
+  <si>
+    <t>1.proxy 代理设置
+2.resolve 模块解析规则
+3.source-map 作用
+4.devtool 详细说明</t>
+  </si>
+  <si>
+    <t>Part2-2 任务二 视频 31~34</t>
+  </si>
+  <si>
+    <t>1.ts-loader 编译 TS
+2.babel-loader 编译 TS
+3.加载 vue 文件
+4.区分打包环境
+5.合并生产环境配置
+6.合并开发环境配置</t>
+  </si>
+  <si>
+    <t>Part2-2 任务二 视频 35~40</t>
+  </si>
+  <si>
+    <t>1.代码拆分方式
+2.splitchunks 配置
+3.import 动态导入配置
+4.runtimeChunk 优化配置
+5.代码懒加载</t>
+  </si>
+  <si>
+    <t>Part2-2 任务二 视频 41~45</t>
+  </si>
+  <si>
+    <t>1.prefetch 与 preload
+2.第三方扩展设置 CDN
+3.Dll 库 打包与使用
+4.CSS 抽离与压缩</t>
+  </si>
+  <si>
+    <t>Part2-2 任务二 视频 46~50</t>
+  </si>
+  <si>
+    <t>1.TerserPlugin 压缩 JS
+2.scope hoisting
+3.usedExports 配置
+4.sideEffects 配置</t>
+  </si>
+  <si>
+    <t>Part2-2 任务二 视频 51~54</t>
+  </si>
+  <si>
+    <t>1.CSS-TreeShaking
+2.资源压缩
+3.inlineChunkHtmlPlugin
+4.webpack 打包 Library
+5.打包时间和内容分析</t>
+  </si>
+  <si>
+    <t>Part2-2 任务二 视频 55~59</t>
+  </si>
+  <si>
+    <t>1.模块打包工具由来
+2.webpack上手/配置/原理
+3.资源模块加载/导入
+4.常用加载器分类
+5.webpack加载资源的方式</t>
+  </si>
+  <si>
+    <t>Part2-2 任务二 视频 1~13</t>
+  </si>
+  <si>
+    <t>1.webpack 核心工作原理
+2.开发一个 loader
+3.插件机制介绍
+4.自动清除目录
+5.自动生成 html
+6.开发一个插件
+7.自动编译
+8.Dev Server 使用</t>
+  </si>
+  <si>
+    <t>Part2-2 任务二 视频 14~28</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +488,19 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -390,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -437,6 +620,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,14 +928,14 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.77734375" customWidth="1"/>
-    <col min="3" max="3" width="78.44140625" customWidth="1"/>
+    <col min="3" max="3" width="56.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1002,6 +1209,226 @@
       </c>
       <c r="C25" s="16" t="s">
         <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF7C5A9F-07E5-46EE-BC9D-A84998B889B4}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="41.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
+        <v>44555</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>44556</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>44557</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>44558</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>44559</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>44560</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>44561</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>44562</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>44563</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>44564</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>44565</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>44566</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>44567</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>44568</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>44569</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>44570</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>44571</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
